--- a/biology/Zoologie/Cheliferinae/Cheliferinae.xlsx
+++ b/biology/Zoologie/Cheliferinae/Cheliferinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cheliferinae sont une sous-famille de pseudoscorpions de la famille des Cheliferidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent en Amérique, en Asie, en Afrique, en Europe et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent en Amérique, en Asie, en Afrique, en Europe et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Cheliferini Risso, 1827
 Aporochelifer Beier, 1953
 Aspurochelifer Benedict &amp; Malcolm, 1979
@@ -634,7 +650,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Risso, 1827 : Animaux articulés: description de quelques Myriapodes, Scorpionides, Arachnides et Acarides, habitant les Alpes Maritimes. Histoire naturelle des principales productions de l'Europe méridionale et principalement de celles des environs de Nice et des Alpes Maritimes, Levrault, Paris, p. 147-186.</t>
         </is>
